--- a/biology/Médecine/Syndrome_lymphœdème-distichiasis/Syndrome_lymphœdème-distichiasis.xlsx
+++ b/biology/Médecine/Syndrome_lymphœdème-distichiasis/Syndrome_lymphœdème-distichiasis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_lymph%C5%93d%C3%A8me-distichiasis</t>
+          <t>Syndrome_lymphœdème-distichiasis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome lymphœdème-distichiasis est une maladie génétique associant un lymphœdème et un distichiasis. Le lymphœdème apparaît à la fin de l'enfance ou à l'adolescence. Il se situe au membre inférieur et est souvent asymétrique. L'importance du lymphœdème varie au sein de la même famille. Les garçons atteints par cette maladie ont des signes plus précoces avec des complications plus fréquentes.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_lymph%C5%93d%C3%A8me-distichiasis</t>
+          <t>Syndrome_lymphœdème-distichiasis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Sahar Mansour, Glen W Brice, Steve Jeffery, Peter Mortimer, Lymphedema-Distichiasis Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Sahar Mansour, Glen W Brice, Steve Jeffery, Peter Mortimer, Lymphedema-Distichiasis Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
 (fr) « Lymphœdème - distichiasis », Orphanet (Site des Maladies Orphelines)
  Portail de la médecine                     </t>
         </is>
